--- a/results/Accuracy.xlsx
+++ b/results/Accuracy.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanjeetsingh/git_workspace/csci544/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61ebcfc80e732fda/Grad School/Applied Natural Language Processing CSCI 544/Project/Github/CSCI-544/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>No Purify</t>
   </si>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -141,8 +141,3216 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Classification Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Purify</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$2:$B$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92749999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8D3-4CF7-9EC4-735E066647E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Purify</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$2:$C$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96189000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92769999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8D3-4CF7-9EC4-735E066647E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="389121064"/>
+        <c:axId val="389125984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="389121064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Random</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Baseline: 83%</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5505686789151379E-2"/>
+              <c:y val="0.7876082097511663"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:glow>
+              <a:schemeClr val="accent1">
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389125984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389125984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.83000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389121064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time To Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$9:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0532407407407407E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9768518518518521E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2824074074074075E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25FF-4950-BE5C-CF7FBB9391B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="390233136"/>
+        <c:axId val="390232152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="390233136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390232152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="390232152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390233136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Classification Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Purify</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Baseline (Random)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B4E-49DE-A89D-6298BCCD60FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Purify</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Baseline (Random)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.96189000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92769999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B4E-49DE-A89D-6298BCCD60FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="389121064"/>
+        <c:axId val="389125984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="389121064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389125984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389125984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389121064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,13 +3616,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
@@ -423,7 +3631,7 @@
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -443,7 +3651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -451,7 +3659,7 @@
         <v>0.95860000000000001</v>
       </c>
       <c r="C2" s="4">
-        <v>0.95950000000000002</v>
+        <v>0.96189000000000002</v>
       </c>
       <c r="D2" s="1">
         <v>1.0532407407407407E-3</v>
@@ -463,7 +3671,7 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -483,7 +3691,7 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -503,7 +3711,7 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -521,9 +3729,56 @@
       </c>
       <c r="F5" s="2">
         <v>40307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="4">
+        <f>C3-B3</f>
+        <v>2.1999999999999909E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0532407407407407E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.9768518518518521E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.2824074074074075E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/Accuracy.xlsx
+++ b/results/Accuracy.xlsx
@@ -484,7 +484,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.96189000000000002</c:v>
+                  <c:v>0.96189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.94299999999999995</c:v>
@@ -849,22 +849,32 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -874,32 +884,26 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
                 <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -927,7 +931,7 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0532407407407407E-3</c:v>
+                  <c:v>8.7962962962962962E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.9768518518518521E-4</c:v>
@@ -945,7 +949,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1420,7 +1423,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.96189000000000002</c:v>
+                  <c:v>0.96189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.94299999999999995</c:v>
@@ -3619,7 +3622,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3659,7 +3662,7 @@
         <v>0.95860000000000001</v>
       </c>
       <c r="C2" s="4">
-        <v>0.96189000000000002</v>
+        <v>0.96189999999999998</v>
       </c>
       <c r="D2" s="1">
         <v>1.0532407407407407E-3</v>
@@ -3750,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0532407407407407E-3</v>
+        <v>8.7962962962962962E-4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
